--- a/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334DD5AA-C007-4AEB-884B-49D4F91EBFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E96C94-D799-4461-B564-F220BEAF9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NewDeliveryBoyCreationDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="AlreadyExistingUserDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,36 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>navya</t>
-  </si>
-  <si>
-    <t>aparna</t>
-  </si>
-  <si>
-    <t>leena</t>
   </si>
   <si>
     <t>navya@gmail</t>
   </si>
   <si>
-    <t>parna@gmail.com</t>
-  </si>
-  <si>
-    <t>leena@gmail.com</t>
-  </si>
-  <si>
     <t>gokulam</t>
   </si>
   <si>
-    <t>usern</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
+    <t>usernm</t>
   </si>
 </sst>
 </file>
@@ -386,7 +368,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,66 +378,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>8111</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1">
         <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>8111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>654</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1325</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{E5F61BA2-7F8F-41C2-84FE-0A46DC80AAB3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CCBADB0F-7E0C-479E-9A89-8834830D53EE}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{DBE57B3F-DFF7-4892-AAAD-F480579B77BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
